--- a/stock_historical_data/1wk/ASMTEC.BO.xlsx
+++ b/stock_historical_data/1wk/ASMTEC.BO.xlsx
@@ -63855,7 +63855,9 @@
       <c r="P1196" t="n">
         <v>0</v>
       </c>
-      <c r="Q1196" t="inlineStr"/>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ASMTEC.BO.xlsx
+++ b/stock_historical_data/1wk/ASMTEC.BO.xlsx
@@ -67501,7 +67501,9 @@
       <c r="Q1197" t="n">
         <v>2</v>
       </c>
-      <c r="R1197" t="inlineStr"/>
+      <c r="R1197" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ASMTEC.BO.xlsx
+++ b/stock_historical_data/1wk/ASMTEC.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1197"/>
+  <dimension ref="A1:R1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67505,6 +67505,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>1305.349975585938</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>1116.050048828125</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>1305.349975585938</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>1305.349975585938</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>104065</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>1370.599975585938</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>1370.599975585938</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>1172.5</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>1201.650024414062</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>1201.650024414062</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>100738</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1199" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/ASMTEC.BO.xlsx
+++ b/stock_historical_data/1wk/ASMTEC.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1199"/>
+  <dimension ref="A1:R1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -67437,7 +67437,7 @@
         <v>23</v>
       </c>
       <c r="O1196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1196" t="n">
         <v>0</v>
@@ -67557,7 +67557,9 @@
       <c r="Q1198" t="n">
         <v>0</v>
       </c>
-      <c r="R1198" t="inlineStr"/>
+      <c r="R1198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
@@ -67611,7 +67613,477 @@
       <c r="Q1199" t="n">
         <v>0</v>
       </c>
-      <c r="R1199" t="inlineStr"/>
+      <c r="R1199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>1353.806000147083</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>1500.676466583703</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>1320.535294679403</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>1484.290893554688</v>
+      </c>
+      <c r="F1200" t="inlineStr"/>
+      <c r="G1200" t="n">
+        <v>32498</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1200" t="inlineStr"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>1486.688848213044</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>1513.665057152394</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>1306.148120874423</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>1330.426635742188</v>
+      </c>
+      <c r="F1201" t="inlineStr"/>
+      <c r="G1201" t="n">
+        <v>41870</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>1297.405748051558</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>1498.678178660576</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>1184.954879927629</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>1473.300537109375</v>
+      </c>
+      <c r="F1202" t="inlineStr"/>
+      <c r="G1202" t="n">
+        <v>39178</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>1516.662380009766</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>1523.656211801643</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>1282.768686905421</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>1298.005249023438</v>
+      </c>
+      <c r="F1203" t="inlineStr"/>
+      <c r="G1203" t="n">
+        <v>39541</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>1288.86320889025</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>1288.86320889025</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>1074.102678798634</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>1186.503540039062</v>
+      </c>
+      <c r="F1204" t="inlineStr"/>
+      <c r="G1204" t="n">
+        <v>51951</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>1177.961066633301</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>1256.691676954195</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>1124.058656092812</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>1185.304565429688</v>
+      </c>
+      <c r="F1205" t="inlineStr"/>
+      <c r="G1205" t="n">
+        <v>17505</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>1220.92315416878</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>1338.819170692442</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>1032.289478945822</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>1269.430419921875</v>
+      </c>
+      <c r="F1206" t="inlineStr"/>
+      <c r="G1206" t="n">
+        <v>62302</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>1269.430424229818</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>1269.430424229818</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>1037.035296689578</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>1133.800048828125</v>
+      </c>
+      <c r="F1207" t="inlineStr"/>
+      <c r="G1207" t="n">
+        <v>54328</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>1252</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>1077.75</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>1171.800048828125</v>
+      </c>
+      <c r="F1208" t="inlineStr"/>
+      <c r="G1208" t="n">
+        <v>55953</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1208" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ASMTEC.BO.xlsx
+++ b/stock_historical_data/1wk/ASMTEC.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1208"/>
+  <dimension ref="A1:R1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -67667,7 +67667,9 @@
       <c r="Q1200" t="n">
         <v>0</v>
       </c>
-      <c r="R1200" t="inlineStr"/>
+      <c r="R1200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1201">
       <c r="A1201" s="2" t="n">
@@ -67719,7 +67721,9 @@
       <c r="Q1201" t="n">
         <v>0</v>
       </c>
-      <c r="R1201" t="inlineStr"/>
+      <c r="R1201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
@@ -67771,7 +67775,9 @@
       <c r="Q1202" t="n">
         <v>1</v>
       </c>
-      <c r="R1202" t="inlineStr"/>
+      <c r="R1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -67823,7 +67829,9 @@
       <c r="Q1203" t="n">
         <v>0</v>
       </c>
-      <c r="R1203" t="inlineStr"/>
+      <c r="R1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -67875,7 +67883,9 @@
       <c r="Q1204" t="n">
         <v>0</v>
       </c>
-      <c r="R1204" t="inlineStr"/>
+      <c r="R1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -67927,7 +67937,9 @@
       <c r="Q1205" t="n">
         <v>0</v>
       </c>
-      <c r="R1205" t="inlineStr"/>
+      <c r="R1205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
@@ -67971,7 +67983,7 @@
         <v>7</v>
       </c>
       <c r="O1206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1206" t="n">
         <v>0</v>
@@ -67979,7 +67991,9 @@
       <c r="Q1206" t="n">
         <v>0</v>
       </c>
-      <c r="R1206" t="inlineStr"/>
+      <c r="R1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -68031,7 +68045,9 @@
       <c r="Q1207" t="n">
         <v>0</v>
       </c>
-      <c r="R1207" t="inlineStr"/>
+      <c r="R1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -68083,7 +68099,477 @@
       <c r="Q1208" t="n">
         <v>0</v>
       </c>
-      <c r="R1208" t="inlineStr"/>
+      <c r="R1208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>1160.050048828125</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>1263.949951171875</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>1160</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>1254.900024414062</v>
+      </c>
+      <c r="F1209" t="inlineStr"/>
+      <c r="G1209" t="n">
+        <v>43090</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>1292.900024414062</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>1174.949951171875</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>1257.050048828125</v>
+      </c>
+      <c r="F1210" t="inlineStr"/>
+      <c r="G1210" t="n">
+        <v>29716</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>1275.949951171875</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>1210</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>1225.050048828125</v>
+      </c>
+      <c r="F1211" t="inlineStr"/>
+      <c r="G1211" t="n">
+        <v>28698</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1211" t="inlineStr"/>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>1226.050048828125</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>1345</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>1226.050048828125</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>1273.650024414062</v>
+      </c>
+      <c r="F1212" t="inlineStr"/>
+      <c r="G1212" t="n">
+        <v>62691</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>1245</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>1338</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>1231.050048828125</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>1246.349975585938</v>
+      </c>
+      <c r="F1213" t="inlineStr"/>
+      <c r="G1213" t="n">
+        <v>21524</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>1133</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>1320</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>1108.800048828125</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>1297.800048828125</v>
+      </c>
+      <c r="F1214" t="inlineStr"/>
+      <c r="G1214" t="n">
+        <v>43954</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>1315.099975585938</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>1435</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>1303</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F1215" t="inlineStr"/>
+      <c r="G1215" t="n">
+        <v>28974</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>1415</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>1495</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>1350</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>1402.800048828125</v>
+      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="n">
+        <v>51144</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>1383</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>1424.949951171875</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>1351.099975585938</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>1376.550048828125</v>
+      </c>
+      <c r="F1217" t="inlineStr"/>
+      <c r="G1217" t="n">
+        <v>21497</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1217" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
